--- a/data/trans_orig/P36BPD14_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>27187</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12942</v>
+        <v>12838</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50377</v>
+        <v>54079</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0666693621391545</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03173742852551711</v>
+        <v>0.03148183364315466</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.123536788353302</v>
+        <v>0.1326143425078563</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -762,19 +762,19 @@
         <v>26403</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14303</v>
+        <v>14341</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42738</v>
+        <v>44047</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07458944436205349</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04040708262646778</v>
+        <v>0.04051278323797186</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1207369257901079</v>
+        <v>0.1244333844040133</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -783,19 +783,19 @@
         <v>53590</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33951</v>
+        <v>34837</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82220</v>
+        <v>80658</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07034964418034981</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0445690763320377</v>
+        <v>0.04573142982598535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1079325768296991</v>
+        <v>0.1058816878087559</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>186277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154520</v>
+        <v>156335</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220145</v>
+        <v>219009</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.45679204721518</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3789176243547342</v>
+        <v>0.3833677175250588</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5398460102807368</v>
+        <v>0.5370601963248597</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>92</v>
@@ -833,19 +833,19 @@
         <v>153024</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>128169</v>
+        <v>126046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>180767</v>
+        <v>177879</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4322992027999727</v>
+        <v>0.4322992027999728</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3620827702449606</v>
+        <v>0.3560846737190815</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5106727725016176</v>
+        <v>0.5025133836764313</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>175</v>
@@ -854,19 +854,19 @@
         <v>339301</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>300606</v>
+        <v>301422</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>380473</v>
+        <v>380814</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4454107795840866</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3946145587776899</v>
+        <v>0.3956855657963487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4994587526950076</v>
+        <v>0.4999060931128448</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>194329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>161293</v>
+        <v>163689</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>226234</v>
+        <v>225928</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4765385906456656</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3955269660139474</v>
+        <v>0.4014011013403956</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5547775477397376</v>
+        <v>0.5540253062074616</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>100</v>
@@ -904,19 +904,19 @@
         <v>174551</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>147927</v>
+        <v>148003</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>200101</v>
+        <v>200978</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4931113528379736</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.417898444586223</v>
+        <v>0.4181138898606402</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5652931854603744</v>
+        <v>0.5677704300053532</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>181</v>
@@ -925,19 +925,19 @@
         <v>368880</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>326123</v>
+        <v>328690</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>408761</v>
+        <v>407851</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4842395762355636</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4281114057886109</v>
+        <v>0.4314808408147778</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5365935247577628</v>
+        <v>0.5353982564394902</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>52115</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35259</v>
+        <v>36680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74440</v>
+        <v>76799</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1092819555117422</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07393429431459886</v>
+        <v>0.07691489538669864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1560944368074897</v>
+        <v>0.1610421458705881</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -1050,19 +1050,19 @@
         <v>39643</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28414</v>
+        <v>26767</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56973</v>
+        <v>55305</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07911382002268005</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05670571399843432</v>
+        <v>0.05341775819276354</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1137004710035105</v>
+        <v>0.110371468149939</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>57</v>
@@ -1071,19 +1071,19 @@
         <v>91758</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>69302</v>
+        <v>69076</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>117497</v>
+        <v>117987</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09382474241722878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07086331709393352</v>
+        <v>0.07063189089456097</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1201433728944226</v>
+        <v>0.1206440406776315</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>198188</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>172186</v>
+        <v>170192</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>223924</v>
+        <v>226581</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4155844969560833</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3610599302921543</v>
+        <v>0.356879304903971</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4695496636246859</v>
+        <v>0.4751216501962915</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>204</v>
@@ -1121,19 +1121,19 @@
         <v>220283</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>196864</v>
+        <v>197291</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>243098</v>
+        <v>243225</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4396130388609156</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3928760703051349</v>
+        <v>0.3937298569322973</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4851446196724781</v>
+        <v>0.4853989364444754</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>336</v>
@@ -1142,19 +1142,19 @@
         <v>418471</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>384433</v>
+        <v>384345</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>452307</v>
+        <v>457032</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4278959735041815</v>
+        <v>0.4278959735041816</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3930917672725524</v>
+        <v>0.3930013339397707</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4624940176110005</v>
+        <v>0.4673260673353787</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>226586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198323</v>
+        <v>196267</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>253716</v>
+        <v>254624</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4751335475321745</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4158669814188703</v>
+        <v>0.4115553660509148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5320229726854623</v>
+        <v>0.5339256396439851</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -1192,19 +1192,19 @@
         <v>241158</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>218645</v>
+        <v>215086</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>264338</v>
+        <v>263614</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4812731411164043</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4363451135602943</v>
+        <v>0.4292432521438275</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5275323720538725</v>
+        <v>0.5260883729305382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>369</v>
@@ -1213,19 +1213,19 @@
         <v>467744</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>432889</v>
+        <v>432480</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>505047</v>
+        <v>502857</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4782792840785896</v>
+        <v>0.4782792840785897</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4426393340681533</v>
+        <v>0.442220523578444</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.516422393083755</v>
+        <v>0.5141826049903875</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>55603</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40714</v>
+        <v>41662</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73103</v>
+        <v>73574</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08956175982602822</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06557848108359725</v>
+        <v>0.0671057606155375</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1177486364483874</v>
+        <v>0.1185079119142134</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>95</v>
@@ -1338,19 +1338,19 @@
         <v>76428</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>62908</v>
+        <v>63460</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>91673</v>
+        <v>94216</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.123184186794569</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1013930105538717</v>
+        <v>0.1022821864144063</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1477540552043639</v>
+        <v>0.1518541591767735</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>138</v>
@@ -1359,19 +1359,19 @@
         <v>132032</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>109331</v>
+        <v>112898</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154838</v>
+        <v>155546</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1063675963510595</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08807985315205968</v>
+        <v>0.09095335230365874</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1247411079998517</v>
+        <v>0.1253111562470482</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>265744</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>239559</v>
+        <v>241967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>292571</v>
+        <v>293166</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4280410538426654</v>
+        <v>0.4280410538426656</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3858652571434549</v>
+        <v>0.3897438861417299</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.471251772266881</v>
+        <v>0.47221164376532</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>330</v>
@@ -1409,19 +1409,19 @@
         <v>253102</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>230765</v>
+        <v>233024</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>274708</v>
+        <v>274093</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4079388578862944</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3719382318749303</v>
+        <v>0.375578354785807</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4427629413457114</v>
+        <v>0.4417723856214396</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>564</v>
@@ -1430,19 +1430,19 @@
         <v>518845</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>485422</v>
+        <v>486985</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>553294</v>
+        <v>550859</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4179931706439597</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3910669934767472</v>
+        <v>0.3923254529829001</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4457460512147101</v>
+        <v>0.4437844945626384</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>299490</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>273412</v>
+        <v>274514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>328510</v>
+        <v>325839</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4823971863313064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4403927048120578</v>
+        <v>0.4421676234473645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5291410285102873</v>
+        <v>0.5248376401229343</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>419</v>
@@ -1480,19 +1480,19 @@
         <v>290910</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>270263</v>
+        <v>270931</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>313635</v>
+        <v>311402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4688769553191365</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4355986649531506</v>
+        <v>0.4366763822127651</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5055043571351262</v>
+        <v>0.5019049155760938</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>688</v>
@@ -1501,19 +1501,19 @@
         <v>590400</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>557506</v>
+        <v>555052</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>626699</v>
+        <v>621433</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.475639233004981</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4491392470955559</v>
+        <v>0.4471617017935054</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5048821985627764</v>
+        <v>0.5006400105891055</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>66771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51671</v>
+        <v>51336</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84118</v>
+        <v>82987</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0957009978695794</v>
+        <v>0.09570099786957939</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07405843165668372</v>
+        <v>0.07357854740320155</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1205641763032437</v>
+        <v>0.1189429602534715</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -1626,19 +1626,19 @@
         <v>68216</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56521</v>
+        <v>56432</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81955</v>
+        <v>81958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0927342360179919</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07683600138110917</v>
+        <v>0.0767145332104775</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1114120783234047</v>
+        <v>0.1114156746343094</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>153</v>
@@ -1647,19 +1647,19 @@
         <v>134986</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111549</v>
+        <v>114931</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155563</v>
+        <v>157538</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09417838592973723</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07782625943995572</v>
+        <v>0.08018586524393811</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1085341316313007</v>
+        <v>0.1099121782468897</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>260279</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>236821</v>
+        <v>234134</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>290263</v>
+        <v>285878</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3730529211472827</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3394303258889592</v>
+        <v>0.3355801655492676</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.416028740691448</v>
+        <v>0.4097438695007929</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>416</v>
@@ -1697,19 +1697,19 @@
         <v>284929</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>262039</v>
+        <v>263866</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>304771</v>
+        <v>307720</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3873390920960652</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3562223256323142</v>
+        <v>0.3587060952858004</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4143131881464887</v>
+        <v>0.4183223845857337</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>657</v>
@@ -1718,19 +1718,19 @@
         <v>545208</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>511833</v>
+        <v>508641</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>579885</v>
+        <v>580818</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3803849199895905</v>
+        <v>0.3803849199895906</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3570994775394455</v>
+        <v>0.354872795730211</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4045786402983714</v>
+        <v>0.4052299324305548</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>370650</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>340858</v>
+        <v>345996</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>395137</v>
+        <v>397897</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.531246080983138</v>
+        <v>0.5312460809831379</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4885456658027609</v>
+        <v>0.4959095849176941</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.566342127646782</v>
+        <v>0.570297616939791</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>625</v>
@@ -1768,19 +1768,19 @@
         <v>382461</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>362563</v>
+        <v>359240</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>404804</v>
+        <v>404660</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.519926671885943</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4928771159608321</v>
+        <v>0.4883597981424753</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5503005398060409</v>
+        <v>0.5501043350012758</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>992</v>
@@ -1789,19 +1789,19 @@
         <v>753112</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>717235</v>
+        <v>718849</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>788392</v>
+        <v>789653</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5254366940806723</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5004058572519836</v>
+        <v>0.5015323814930736</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5500517397998691</v>
+        <v>0.5509311053840081</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>55421</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42069</v>
+        <v>42284</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71662</v>
+        <v>71623</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09148652228353635</v>
+        <v>0.09148652228353633</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06944538756504468</v>
+        <v>0.06980112922174848</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1182966401745247</v>
+        <v>0.1182318012128187</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>93</v>
@@ -1914,19 +1914,19 @@
         <v>61286</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50907</v>
+        <v>51156</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73866</v>
+        <v>74473</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1008412784732051</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08376401923719158</v>
+        <v>0.08417254663023635</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1215404133410399</v>
+        <v>0.1225398933959854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>145</v>
@@ -1935,19 +1935,19 @@
         <v>116707</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>97654</v>
+        <v>100481</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>135566</v>
+        <v>136257</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0961714703180061</v>
+        <v>0.09617147031800609</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08047092780603508</v>
+        <v>0.08280077922228597</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1117123469128785</v>
+        <v>0.1122820134360937</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>279477</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>256937</v>
+        <v>254863</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>304456</v>
+        <v>302523</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4613493677638796</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4241405128456391</v>
+        <v>0.4207177564244917</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5025827748210677</v>
+        <v>0.4993925369508312</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>403</v>
@@ -1985,19 +1985,19 @@
         <v>255885</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>233784</v>
+        <v>237040</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>273438</v>
+        <v>275036</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4210391928356109</v>
+        <v>0.4210391928356111</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.384673689974512</v>
+        <v>0.3900314049856889</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4499209260563207</v>
+        <v>0.4525505659239001</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>701</v>
@@ -2006,19 +2006,19 @@
         <v>535362</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>506455</v>
+        <v>504121</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>564523</v>
+        <v>566286</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4411616610005661</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4173413939528802</v>
+        <v>0.4154174251138808</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4651913109695602</v>
+        <v>0.4666441833150327</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>270884</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>248327</v>
+        <v>246750</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>292221</v>
+        <v>295605</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4471641099525842</v>
+        <v>0.4471641099525841</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4099283628266431</v>
+        <v>0.407324727254536</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4823868397302296</v>
+        <v>0.4879732620699102</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>504</v>
@@ -2056,19 +2056,19 @@
         <v>290575</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>271919</v>
+        <v>272549</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>309391</v>
+        <v>309432</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4781195286911838</v>
+        <v>0.478119528691184</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4474225280006112</v>
+        <v>0.4484580777034421</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5090788321320805</v>
+        <v>0.5091471891198985</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>814</v>
@@ -2077,19 +2077,19 @@
         <v>561459</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>533370</v>
+        <v>531589</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>590153</v>
+        <v>590964</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4626668686814276</v>
+        <v>0.4626668686814278</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4395197534358701</v>
+        <v>0.4380526422279785</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4863114395475149</v>
+        <v>0.4869804236413216</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>34512</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25779</v>
+        <v>25769</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44832</v>
+        <v>44590</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0858984160716259</v>
+        <v>0.08589841607162588</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06416203886892098</v>
+        <v>0.06413651286498095</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1115835021385157</v>
+        <v>0.1109805107651402</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>90</v>
@@ -2202,19 +2202,19 @@
         <v>49640</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>40261</v>
+        <v>40598</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61634</v>
+        <v>60402</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1131245703893619</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0917504044142216</v>
+        <v>0.09251828868055606</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1404572399889775</v>
+        <v>0.1376503429873396</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>135</v>
@@ -2223,19 +2223,19 @@
         <v>84152</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>70444</v>
+        <v>70713</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>97953</v>
+        <v>98691</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1001112429958668</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08380289799937812</v>
+        <v>0.08412321656305595</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.11652946498186</v>
+        <v>0.1174063993898374</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>177541</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>161158</v>
+        <v>160344</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>195064</v>
+        <v>194034</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4418874037673142</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4011131940555849</v>
+        <v>0.3990855476106535</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4855014022265639</v>
+        <v>0.4829379638626632</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>362</v>
@@ -2273,19 +2273,19 @@
         <v>195968</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>181258</v>
+        <v>181821</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>211753</v>
+        <v>211393</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.446589084406987</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4130659137198979</v>
+        <v>0.4143498436112749</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4825606078859234</v>
+        <v>0.4817395748539327</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>618</v>
@@ -2294,19 +2294,19 @@
         <v>373509</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>349463</v>
+        <v>351204</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>396253</v>
+        <v>395855</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4443418147871325</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.415736048580895</v>
+        <v>0.4178067043617492</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4713988416261399</v>
+        <v>0.470926133380261</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>189725</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>171642</v>
+        <v>173278</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>206955</v>
+        <v>207588</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4722141801610599</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4272054138111236</v>
+        <v>0.4312772171541699</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5150987739967694</v>
+        <v>0.5166742601726572</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>374</v>
@@ -2344,19 +2344,19 @@
         <v>193202</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>177622</v>
+        <v>178682</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>207803</v>
+        <v>207972</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4402863452036511</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4047795370906031</v>
+        <v>0.407196817649166</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4735587810512137</v>
+        <v>0.4739454747804652</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>636</v>
@@ -2365,19 +2365,19 @@
         <v>382928</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>361044</v>
+        <v>359808</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>405879</v>
+        <v>405815</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4555469422170008</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.429512668424993</v>
+        <v>0.4280429496963636</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.482850731127032</v>
+        <v>0.482775048547933</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>39605</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30095</v>
+        <v>30050</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50076</v>
+        <v>50219</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1286849100499895</v>
+        <v>0.1286849100499894</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09778413871633285</v>
+        <v>0.09763919726792336</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1627094391509799</v>
+        <v>0.1631724606408907</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>111</v>
@@ -2490,19 +2490,19 @@
         <v>58727</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>48299</v>
+        <v>48773</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70373</v>
+        <v>70128</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1268922231241377</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1043608789659431</v>
+        <v>0.1053836488987152</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1520564934698233</v>
+        <v>0.151527319388044</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>161</v>
@@ -2511,19 +2511,19 @@
         <v>98332</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>83108</v>
+        <v>85247</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>113399</v>
+        <v>114422</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1276082166159823</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1078515025862207</v>
+        <v>0.1106281842405143</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1471619807951617</v>
+        <v>0.1484895534153306</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>150497</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>135994</v>
+        <v>136288</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>164990</v>
+        <v>165493</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4890011569364036</v>
+        <v>0.4890011569364034</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4418772887147974</v>
+        <v>0.4428312564711873</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5360897311449392</v>
+        <v>0.5377249586456617</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>420</v>
@@ -2561,19 +2561,19 @@
         <v>225051</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>209740</v>
+        <v>209523</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>241285</v>
+        <v>240387</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4862710363305853</v>
+        <v>0.4862710363305852</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.45318779385212</v>
+        <v>0.4527182223106101</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5213468649979869</v>
+        <v>0.5194067016638939</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>647</v>
@@ -2582,19 +2582,19 @@
         <v>375549</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>353147</v>
+        <v>355770</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>397432</v>
+        <v>396654</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4873614378711598</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4582902056360523</v>
+        <v>0.4616945042930917</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5157606567328303</v>
+        <v>0.5147509249889964</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>117663</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>102833</v>
+        <v>104533</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>132486</v>
+        <v>131938</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3823139330136071</v>
+        <v>0.382313933013607</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.334127582723198</v>
+        <v>0.339651486501617</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4304774283977643</v>
+        <v>0.4286985490525807</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>346</v>
@@ -2632,19 +2632,19 @@
         <v>179032</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>164211</v>
+        <v>164521</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>194608</v>
+        <v>197057</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.386836740545277</v>
+        <v>0.3868367405452769</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3548132269854004</v>
+        <v>0.3554827875204764</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4204919335554743</v>
+        <v>0.4257847593831372</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>523</v>
@@ -2653,19 +2653,19 @@
         <v>296695</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>276911</v>
+        <v>276354</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>319416</v>
+        <v>317039</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3850303455128579</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3593566289284238</v>
+        <v>0.3586330776699846</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.414516034697688</v>
+        <v>0.4114312160789391</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>331214</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>293821</v>
+        <v>292941</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>378715</v>
+        <v>376361</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.09413388479975729</v>
+        <v>0.09413388479975732</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08350625227415669</v>
+        <v>0.08325634396294566</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1076339961652968</v>
+        <v>0.1069649074203645</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>530</v>
@@ -2778,19 +2778,19 @@
         <v>380343</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>344763</v>
+        <v>344913</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>414305</v>
+        <v>415615</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1022297293775189</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09266640264143954</v>
+        <v>0.09270682959755464</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1113581821858809</v>
+        <v>0.1117102326035946</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>809</v>
@@ -2799,19 +2799,19 @@
         <v>711557</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>661126</v>
+        <v>660361</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>762719</v>
+        <v>765318</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09829472200968513</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09132815039116197</v>
+        <v>0.09122242533462577</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.105362178432318</v>
+        <v>0.1057212634777853</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>1518003</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1451102</v>
+        <v>1453826</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1581249</v>
+        <v>1590321</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4314290964053814</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.412415433586277</v>
+        <v>0.4131896049288997</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4494043103611435</v>
+        <v>0.4519826282966538</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2227</v>
@@ -2849,19 +2849,19 @@
         <v>1588242</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1532148</v>
+        <v>1531076</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1639078</v>
+        <v>1645769</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.4268923097354552</v>
+        <v>0.4268923097354551</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4118151927877878</v>
+        <v>0.4115271633610562</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.440556239323771</v>
+        <v>0.442354626296504</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3698</v>
@@ -2870,19 +2870,19 @@
         <v>3106244</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3018505</v>
+        <v>3018259</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3187265</v>
+        <v>3183025</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4290974272869318</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4169770375173676</v>
+        <v>0.4169431461869089</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.440289568367107</v>
+        <v>0.4397039277359153</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>1669328</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1604345</v>
+        <v>1602018</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1739394</v>
+        <v>1733612</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4744370187948614</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4559683110150393</v>
+        <v>0.4553070115250095</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4943504856471552</v>
+        <v>0.4927071663419182</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2593</v>
@@ -2920,19 +2920,19 @@
         <v>1751889</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1701218</v>
+        <v>1697051</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1808790</v>
+        <v>1809202</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4708779608870259</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4572584809128698</v>
+        <v>0.4561382990204263</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4861719065000761</v>
+        <v>0.4862827644631733</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4203</v>
@@ -2941,19 +2941,19 @@
         <v>3421217</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3338378</v>
+        <v>3336822</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3506162</v>
+        <v>3505390</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.472607850703383</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4611644218041301</v>
+        <v>0.4609495030731572</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4843421699725988</v>
+        <v>0.484235560289498</v>
       </c>
     </row>
     <row r="35">
